--- a/Code/ProjectMilitaryTechnologPlanPlugin/填报系统表格修改.xlsx
+++ b/Code/ProjectMilitaryTechnologPlanPlugin/填报系统表格修改.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="110">
   <si>
     <t>中文名</t>
   </si>
@@ -445,6 +445,14 @@
   </si>
   <si>
     <t>QianTouRenShouJi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZhuanYeLeiBie</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -828,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1494,10 +1502,10 @@
         <v>60</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>43</v>
@@ -1513,13 +1521,13 @@
         <v>60</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="4"/>
@@ -1532,13 +1540,13 @@
         <v>60</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="4"/>
@@ -1551,10 +1559,10 @@
         <v>60</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>43</v>
@@ -1563,44 +1571,44 @@
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="A41" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>105</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
         <v>43</v>
       </c>
-      <c r="F41" s="2"/>
-      <c r="G41" t="s">
+      <c r="F42" s="2"/>
+      <c r="G42" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
@@ -1610,10 +1618,10 @@
         <v>60</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>43</v>
@@ -1629,37 +1637,35 @@
         <v>60</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" t="s">
-        <v>98</v>
-      </c>
+      <c r="A45" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
@@ -1669,10 +1675,10 @@
         <v>60</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E46" t="s">
         <v>43</v>
@@ -1683,23 +1689,25 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" s="4" t="s">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" t="s">
         <v>43</v>
       </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="4"/>
+      <c r="F47" s="2"/>
+      <c r="G47" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
@@ -1708,14 +1716,14 @@
       <c r="B48" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>75</v>
+      <c r="C48" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="4"/>
@@ -1727,14 +1735,14 @@
       <c r="B49" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>76</v>
+      <c r="C49" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="4"/>
@@ -1747,37 +1755,35 @@
         <v>60</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D51" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" t="s">
-        <v>47</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="G51" t="s">
-        <v>98</v>
-      </c>
+      <c r="A51" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
@@ -1787,16 +1793,37 @@
         <v>60</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" t="s">
         <v>98</v>
       </c>
     </row>

--- a/Code/ProjectMilitaryTechnologPlanPlugin/填报系统表格修改.xlsx
+++ b/Code/ProjectMilitaryTechnologPlanPlugin/填报系统表格修改.xlsx
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Tag</t>
-  </si>
-  <si>
-    <t>[nvarchar(1000)]</t>
   </si>
   <si>
     <t>人员表</t>
@@ -453,6 +450,10 @@
   </si>
   <si>
     <t>ZhuanYeLeiBie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[nvarchar(2000)]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -839,7 +840,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -917,914 +918,914 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" t="s">
         <v>96</v>
       </c>
-      <c r="D9" t="s">
-        <v>97</v>
-      </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
         <v>52</v>
       </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
         <v>55</v>
       </c>
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="C23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="C24" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="C25" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
         <v>45</v>
       </c>
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
       <c r="C26" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
         <v>45</v>
       </c>
-      <c r="B27" t="s">
-        <v>46</v>
-      </c>
       <c r="C27" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>20</v>
+        <v>78</v>
+      </c>
+      <c r="E30" t="s">
+        <v>109</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>20</v>
+        <v>79</v>
+      </c>
+      <c r="E31" t="s">
+        <v>109</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>20</v>
+        <v>80</v>
+      </c>
+      <c r="E32" t="s">
+        <v>109</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>20</v>
+        <v>81</v>
+      </c>
+      <c r="E33" t="s">
+        <v>109</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="E37" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>20</v>
+        <v>92</v>
+      </c>
+      <c r="E49" t="s">
+        <v>109</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D53" t="s">
         <v>6</v>
       </c>
       <c r="E53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
